--- a/QuantLibXL/Workbooks/MarketData/ReutersFeed/HKD_MMIndicesAddLastFixing.xlsx
+++ b/QuantLibXL/Workbooks/MarketData/ReutersFeed/HKD_MMIndicesAddLastFixing.xlsx
@@ -922,42 +922,44 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 20:29:13</v>
+        <v>Updated at 16:45:38</v>
         <stp/>
-        <stp>{BAEF8CA6-4D94-485D-9EF6-2C642CF91958}</stp>
-        <tr r="D3" s="9"/>
+        <stp>{7D15C1B3-A2A7-42F4-8366-C21A91F5FC4A}</stp>
+        <tr r="D3" s="13"/>
       </tp>
       <tp t="s">
-        <v>Updated at 20:29:13</v>
+        <v>Updated at 16:45:38</v>
         <stp/>
-        <stp>{6BAA62F2-9FAF-4135-B913-F78476C24D61}</stp>
+        <stp>{A7300E91-1540-4776-AE79-A83CC2B9A3D0}</stp>
         <tr r="D3" s="8"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 20:29:13</v>
-        <stp/>
-        <stp>{062B3083-8C6F-479D-AE9A-2464F35A8103}</stp>
-        <tr r="D3" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 20:29:14</v>
-        <stp/>
-        <stp>{23E6E846-6725-435F-A6D2-ED838E11BDF2}</stp>
-        <tr r="D3" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 20:29:14</v>
+        <v>Updated at 16:45:38</v>
         <stp/>
-        <stp>{0E231C8B-AA76-406D-9F73-39631263688E}</stp>
+        <stp>{3CA253D6-85AD-41AD-9104-02E60C2A8FC8}</stp>
+        <tr r="D3" s="11"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:45:39</v>
+        <stp/>
+        <stp>{DEE5F696-D8E8-4597-AE8F-04650E3D1571}</stp>
         <tr r="D3" s="12"/>
       </tp>
       <tp t="s">
-        <v>Updated at 20:29:13</v>
+        <v>Updated at 16:45:38</v>
         <stp/>
-        <stp>{97ECD09E-2986-40D5-A882-A9BF99B5D486}</stp>
-        <tr r="D3" s="13"/>
+        <stp>{B9550DBF-5F7D-489A-AC9A-460367CA2F80}</stp>
+        <tr r="D3" s="9"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Updated at 16:45:39</v>
+        <stp/>
+        <stp>{2514F6D3-EF53-4C59-ADAC-6A8233CE5FA9}</stp>
+        <tr r="D3" s="7"/>
       </tp>
     </main>
   </volType>
@@ -1271,7 +1273,7 @@
     <row r="1" spans="1:167" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:167" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1632,7 +1634,7 @@
       </c>
       <c r="D5" s="83">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="10"/>
@@ -1804,9 +1806,7 @@
       <c r="C6" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="84">
-        <v>41576.85292824074</v>
-      </c>
+      <c r="D6" s="84"/>
       <c r="E6" s="17"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -2552,7 +2552,7 @@
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="D3" s="33" t="str">
         <f>_xll.RData(D4:D21,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Updated at 20:29:13</v>
+        <v>Updated at 16:45:38</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>45</v>
@@ -2716,10 +2716,10 @@
         <v>HIHKDOND=</v>
       </c>
       <c r="E4" s="59">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F4" s="61">
-        <v>9.0709999999999999E-2</v>
+        <v>8.548E-2</v>
       </c>
       <c r="G4" s="61" t="b">
         <f>IF(AND(ISNUMBER($F4),$F4&lt;&gt;0%),TRUE,FALSE)</f>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="L4" s="35">
         <f>IF($H4,_xll.qlIndexFixing($J4,$E4,FALSE,$G4),"-")</f>
-        <v>9.0709999999999999E-4</v>
+        <v>8.5479999999999996E-4</v>
       </c>
       <c r="M4" s="35" t="e">
         <f t="shared" ref="M4:M18" si="2">K4-L4</f>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="N4" s="65">
         <f>_xll.qlIndexFixing($J4,$E4,TRUE,$L4)</f>
-        <v>3.9589105807813496E-4</v>
+        <v>3.8855175910512685E-4</v>
       </c>
       <c r="O4" s="54">
         <f>IF(ISERROR(M4),0,ABS(M4))</f>
@@ -2905,10 +2905,10 @@
         <v>HIHKD1WD=</v>
       </c>
       <c r="E7" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F7" s="68">
-        <v>0.13714000000000001</v>
+        <v>0.13786000000000001</v>
       </c>
       <c r="G7" s="68" t="b">
         <f t="shared" si="3"/>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="L7" s="8">
         <f>IF($H7,_xll.qlIndexFixing($J7,$E7,FALSE,$G7),"-")</f>
-        <v>1.3714E-3</v>
+        <v>1.3786E-3</v>
       </c>
       <c r="M7" s="8" t="e">
         <f t="shared" si="2"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="N7" s="71">
         <f>_xll.qlIndexFixing($J7,$E7,TRUE,$L7)</f>
-        <v>2.0996489090001941E-3</v>
+        <v>1.9422567849863054E-3</v>
       </c>
       <c r="O7" s="37">
         <f t="shared" ref="O7:O21" si="4">IF(ISERROR(M7),0,ABS(M7))</f>
@@ -2970,10 +2970,10 @@
         <v>HIHKD2WD=</v>
       </c>
       <c r="E8" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F8" s="68">
-        <v>0.15856999999999999</v>
+        <v>0.16483999999999999</v>
       </c>
       <c r="G8" s="68" t="b">
         <f t="shared" si="3"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="L8" s="8">
         <f>IF($H8,_xll.qlIndexFixing($J8,$E8,FALSE,$G8),"-")</f>
-        <v>1.5856999999999998E-3</v>
+        <v>1.6484E-3</v>
       </c>
       <c r="M8" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="N8" s="71">
         <f>_xll.qlIndexFixing($J8,$E8,TRUE,$L8)</f>
-        <v>2.0996911825318532E-3</v>
+        <v>1.9448671449191965E-3</v>
       </c>
       <c r="O8" s="37">
         <f t="shared" si="4"/>
@@ -3100,10 +3100,10 @@
         <v>HIHKD1MD=</v>
       </c>
       <c r="E10" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F10" s="68">
-        <v>0.215</v>
+        <v>0.21856999999999999</v>
       </c>
       <c r="G10" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="L10" s="8">
         <f>IF($H10,_xll.qlIndexFixing($J10,$E10,FALSE,$G10),"-")</f>
-        <v>2.15E-3</v>
+        <v>2.1857000000000001E-3</v>
       </c>
       <c r="M10" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="N10" s="71">
         <f>_xll.qlIndexFixing($J10,$E10,TRUE,$L10)</f>
-        <v>2.0997938515480404E-3</v>
+        <v>1.9572791847612958E-3</v>
       </c>
       <c r="O10" s="37">
         <f t="shared" si="4"/>
@@ -3165,10 +3165,10 @@
         <v>HIHKD2MD=</v>
       </c>
       <c r="E11" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F11" s="68">
-        <v>0.32571</v>
+        <v>0.32142999999999999</v>
       </c>
       <c r="G11" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="L11" s="8">
         <f>IF($H11,_xll.qlIndexFixing($J11,$E11,FALSE,$G11),"-")</f>
-        <v>3.2571000000000002E-3</v>
+        <v>3.2142999999999998E-3</v>
       </c>
       <c r="M11" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3230,10 +3230,10 @@
         <v>HIHKD3MD=</v>
       </c>
       <c r="E12" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F12" s="68">
-        <v>0.38285999999999998</v>
+        <v>0.38070999999999999</v>
       </c>
       <c r="G12" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="L12" s="8">
         <f>IF($H12,_xll.qlIndexFixing($J12,$E12,FALSE,$G12),"-")</f>
-        <v>3.8285999999999997E-3</v>
+        <v>3.8070999999999999E-3</v>
       </c>
       <c r="M12" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3295,10 +3295,10 @@
         <v>HIHKD4MD=</v>
       </c>
       <c r="E13" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F13" s="68">
-        <v>0.41</v>
+        <v>0.41247</v>
       </c>
       <c r="G13" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="L13" s="8">
         <f>IF($H13,_xll.qlIndexFixing($J13,$E13,FALSE,$G13),"-")</f>
-        <v>4.0999999999999995E-3</v>
+        <v>4.1247000000000002E-3</v>
       </c>
       <c r="M13" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3360,10 +3360,10 @@
         <v>HIHKD5MD=</v>
       </c>
       <c r="E14" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F14" s="68">
-        <v>0.45071</v>
+        <v>0.45571</v>
       </c>
       <c r="G14" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="L14" s="8">
         <f>IF($H14,_xll.qlIndexFixing($J14,$E14,FALSE,$G14),"-")</f>
-        <v>4.5071E-3</v>
+        <v>4.5570999999999997E-3</v>
       </c>
       <c r="M14" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3425,10 +3425,10 @@
         <v>HIHKD6MD=</v>
       </c>
       <c r="E15" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F15" s="68">
-        <v>0.54500000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G15" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="L15" s="8">
         <f>IF($H15,_xll.qlIndexFixing($J15,$E15,FALSE,$G15),"-")</f>
-        <v>5.45E-3</v>
+        <v>5.5000000000000005E-3</v>
       </c>
       <c r="M15" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3490,10 +3490,10 @@
         <v>HIHKD7MD=</v>
       </c>
       <c r="E16" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F16" s="68">
-        <v>0.57071000000000005</v>
+        <v>0.57428999999999997</v>
       </c>
       <c r="G16" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="L16" s="8">
         <f>IF($H16,_xll.qlIndexFixing($J16,$E16,FALSE,$G16),"-")</f>
-        <v>5.7071000000000005E-3</v>
+        <v>5.7428999999999996E-3</v>
       </c>
       <c r="M16" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3555,10 +3555,10 @@
         <v>HIHKD8MD=</v>
       </c>
       <c r="E17" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F17" s="68">
-        <v>0.59286000000000005</v>
+        <v>0.60070999999999997</v>
       </c>
       <c r="G17" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="L17" s="8">
         <f>IF($H17,_xll.qlIndexFixing($J17,$E17,FALSE,$G17),"-")</f>
-        <v>5.9286000000000009E-3</v>
+        <v>6.0070999999999996E-3</v>
       </c>
       <c r="M17" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3620,10 +3620,10 @@
         <v>HIHKD9MD=</v>
       </c>
       <c r="E18" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F18" s="68">
-        <v>0.62143000000000004</v>
+        <v>0.63214000000000004</v>
       </c>
       <c r="G18" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="L18" s="8">
         <f>IF($H18,_xll.qlIndexFixing($J18,$E18,FALSE,$G18),"-")</f>
-        <v>6.2143000000000007E-3</v>
+        <v>6.3214000000000005E-3</v>
       </c>
       <c r="M18" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3685,10 +3685,10 @@
         <v>HIHKD10MD=</v>
       </c>
       <c r="E19" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F19" s="68">
-        <v>0.70213999999999999</v>
+        <v>0.70992999999999995</v>
       </c>
       <c r="G19" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="L19" s="8">
         <f>IF($H19,_xll.qlIndexFixing($J19,$E19,FALSE,$G19),"-")</f>
-        <v>7.0213999999999997E-3</v>
+        <v>7.0992999999999994E-3</v>
       </c>
       <c r="M19" s="8" t="e">
         <f t="shared" ref="M19:M21" si="5">K19-L19</f>
@@ -3750,10 +3750,10 @@
         <v>HIHKD11MD=</v>
       </c>
       <c r="E20" s="67">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F20" s="68">
-        <v>0.78356999999999999</v>
+        <v>0.78786</v>
       </c>
       <c r="G20" s="68" t="b">
         <f t="shared" si="3"/>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="L20" s="8">
         <f>IF($H20,_xll.qlIndexFixing($J20,$E20,FALSE,$G20),"-")</f>
-        <v>7.8356999999999993E-3</v>
+        <v>7.8785999999999995E-3</v>
       </c>
       <c r="M20" s="8" t="e">
         <f t="shared" si="5"/>
@@ -3815,10 +3815,10 @@
         <v>HIHKD1YD=</v>
       </c>
       <c r="E21" s="73">
-        <v>41576</v>
+        <v>41582</v>
       </c>
       <c r="F21" s="74">
-        <v>0.87070999999999998</v>
+        <v>0.87143000000000004</v>
       </c>
       <c r="G21" s="74" t="b">
         <f t="shared" si="3"/>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="L21" s="36">
         <f>IF($H21,_xll.qlIndexFixing($J21,$E21,FALSE,$G21),"-")</f>
-        <v>8.7071000000000006E-3</v>
+        <v>8.7143000000000012E-3</v>
       </c>
       <c r="M21" s="36" t="e">
         <f t="shared" si="5"/>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="D3" s="33" t="str">
         <f>_xll.RData(D4:D21,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Updated at 20:29:13</v>
+        <v>Updated at 16:45:38</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>45</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="S4" s="87">
         <f>_xll.qlQuoteValue(R4,ISERROR(H4))</f>
-        <v>9.3570000000000003E-4</v>
+        <v>8.5479999999999996E-4</v>
       </c>
       <c r="T4" s="86" t="e">
         <f t="shared" ref="T4:T21" si="3">IF(E4=EvaluationDate,S4-F4/100,NA())</f>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="S8" s="87">
         <f>_xll.qlQuoteValue(R8,ISERROR(H8))</f>
-        <v>1.6071E-3</v>
+        <v>1.6484E-3</v>
       </c>
       <c r="T8" s="86" t="e">
         <f t="shared" si="3"/>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="S10" s="87">
         <f>_xll.qlQuoteValue(R10,ISERROR(H10))</f>
-        <v>2.15E-3</v>
+        <v>2.1857000000000001E-3</v>
       </c>
       <c r="T10" s="86" t="e">
         <f t="shared" si="3"/>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="S11" s="87">
         <f>_xll.qlQuoteValue(R11,ISERROR(H11))</f>
-        <v>3.2500000000000003E-3</v>
+        <v>3.2142999999999998E-3</v>
       </c>
       <c r="T11" s="86" t="e">
         <f t="shared" si="3"/>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="S12" s="87">
         <f>_xll.qlQuoteValue(R12,ISERROR(H12))</f>
-        <v>3.8429000000000002E-3</v>
+        <v>3.8070999999999999E-3</v>
       </c>
       <c r="T12" s="86" t="e">
         <f t="shared" si="3"/>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="S13" s="87">
         <f>_xll.qlQuoteValue(R13,ISERROR(H13))</f>
-        <v>4.0999999999999995E-3</v>
+        <v>4.1247000000000002E-3</v>
       </c>
       <c r="T13" s="86" t="e">
         <f t="shared" si="3"/>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="S14" s="87">
         <f>_xll.qlQuoteValue(R14,ISERROR(H14))</f>
-        <v>4.5071E-3</v>
+        <v>4.5570999999999997E-3</v>
       </c>
       <c r="T14" s="86" t="e">
         <f t="shared" si="3"/>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="S15" s="87">
         <f>_xll.qlQuoteValue(R15,ISERROR(H15))</f>
-        <v>5.45E-3</v>
+        <v>5.5000000000000005E-3</v>
       </c>
       <c r="T15" s="86" t="e">
         <f t="shared" si="3"/>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="S16" s="87">
         <f>_xll.qlQuoteValue(R16,ISERROR(H16))</f>
-        <v>5.7071000000000005E-3</v>
+        <v>5.7428999999999996E-3</v>
       </c>
       <c r="T16" s="86" t="e">
         <f t="shared" si="3"/>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="S17" s="87">
         <f>_xll.qlQuoteValue(R17,ISERROR(H17))</f>
-        <v>5.9286000000000009E-3</v>
+        <v>6.0070999999999996E-3</v>
       </c>
       <c r="T17" s="86" t="e">
         <f t="shared" si="3"/>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="S18" s="87">
         <f>_xll.qlQuoteValue(R18,ISERROR(H18))</f>
-        <v>6.2143000000000007E-3</v>
+        <v>6.3214000000000005E-3</v>
       </c>
       <c r="T18" s="86" t="e">
         <f t="shared" si="3"/>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="S19" s="87">
         <f>_xll.qlQuoteValue(R19,ISERROR(H19))</f>
-        <v>7.0143000000000002E-3</v>
+        <v>7.0992999999999994E-3</v>
       </c>
       <c r="T19" s="86" t="e">
         <f t="shared" si="3"/>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="S20" s="87">
         <f>_xll.qlQuoteValue(R20,ISERROR(H20))</f>
-        <v>7.8356999999999993E-3</v>
+        <v>7.8785999999999995E-3</v>
       </c>
       <c r="T20" s="86" t="e">
         <f t="shared" si="3"/>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="S21" s="87">
         <f>_xll.qlQuoteValue(R21,ISERROR(H21))</f>
-        <v>8.7071000000000006E-3</v>
+        <v>8.7143000000000012E-3</v>
       </c>
       <c r="T21" s="86" t="e">
         <f t="shared" si="3"/>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="D3" s="33" t="str">
         <f>_xll.RData(D4:D21,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Updated at 20:29:13</v>
+        <v>Updated at 16:45:38</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>45</v>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="D3" s="33" t="str">
         <f>_xll.RData(D4:D18,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Updated at 20:29:14</v>
+        <v>Updated at 16:45:39</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>45</v>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="D3" s="33" t="str">
         <f>_xll.RData(D4:D18,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Updated at 20:29:14</v>
+        <v>Updated at 16:45:39</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>45</v>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="D3" s="33" t="str">
         <f>_xll.RData(D4:D18,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Updated at 20:29:13</v>
+        <v>Updated at 16:45:38</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>45</v>
